--- a/AboutMe.Web.Admin/Upload/DeliveryExcel/delivery_templet.xlsx
+++ b/AboutMe.Web.Admin/Upload/DeliveryExcel/delivery_templet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ORDER IDX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,26 @@
   <si>
     <t>송장번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받으시는분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,24 +459,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
+    <col min="9" max="9" width="65.375" customWidth="1"/>
+    <col min="10" max="10" width="44.625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="23.875" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="17.625" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="22.75" customWidth="1"/>
+    <col min="19" max="19" width="17.75" customWidth="1"/>
+    <col min="20" max="20" width="15.125" customWidth="1"/>
+    <col min="21" max="21" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,36 +507,51 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
